--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1892.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1892.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.233902850971323</v>
+        <v>1.290778040885925</v>
       </c>
       <c r="B1">
-        <v>2.934227995599368</v>
+        <v>1.969690203666687</v>
       </c>
       <c r="C1">
-        <v>3.92059344952243</v>
+        <v>2.691423654556274</v>
       </c>
       <c r="D1">
-        <v>2.471370060664145</v>
+        <v>3.727025985717773</v>
       </c>
       <c r="E1">
-        <v>0.9604228093447722</v>
+        <v>1.046867847442627</v>
       </c>
     </row>
   </sheetData>
